--- a/字段整理/字段整理.xlsx
+++ b/字段整理/字段整理.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306">
   <si>
     <t>基本信息</t>
   </si>
@@ -604,21 +604,36 @@
     <t>Grace分值</t>
   </si>
   <si>
-    <t>危险分层</t>
+    <t>危险分层：</t>
+  </si>
+  <si>
+    <t>危险度</t>
   </si>
   <si>
     <t>极高危</t>
   </si>
   <si>
+    <t>非常危险</t>
+  </si>
+  <si>
     <t>高危</t>
   </si>
   <si>
+    <t>很危险</t>
+  </si>
+  <si>
     <t>中危</t>
   </si>
   <si>
+    <t>比较危险</t>
+  </si>
+  <si>
     <t>低危</t>
   </si>
   <si>
+    <t>比较安全</t>
+  </si>
+  <si>
     <t>主动脉夹层</t>
   </si>
   <si>
@@ -628,12 +643,18 @@
     <t>初步诊断时间</t>
   </si>
   <si>
+    <t>首次诊疗时间</t>
+  </si>
+  <si>
     <t>不合适</t>
   </si>
   <si>
     <t>非ACS心源性胸痛</t>
   </si>
   <si>
+    <t>某种病的名字</t>
+  </si>
+  <si>
     <t>心率失常</t>
   </si>
   <si>
@@ -685,6 +706,9 @@
     <t>处理措施</t>
   </si>
   <si>
+    <t>该病症的处理方法</t>
+  </si>
+  <si>
     <t>患者去向</t>
   </si>
   <si>
@@ -695,6 +719,9 @@
   </si>
   <si>
     <t>呼吸系统病</t>
+  </si>
+  <si>
+    <t>引起非心源性胸痛的病症</t>
   </si>
   <si>
     <t>消化系统病</t>
@@ -837,19 +864,31 @@
     <t>转送其他医院:</t>
   </si>
   <si>
+    <t>将患者转送到其他的医院继续治疗</t>
+  </si>
+  <si>
     <t>离开本院大门时间</t>
   </si>
   <si>
     <t>记录患者本次住院的出院日期</t>
   </si>
   <si>
+    <t>转送去的医院是否是网络医院</t>
+  </si>
+  <si>
     <t>名称</t>
   </si>
   <si>
+    <t>转送去的医院名称</t>
+  </si>
+  <si>
     <t>原因转运PCI</t>
   </si>
   <si>
     <t>直达导管室</t>
+  </si>
+  <si>
+    <t>直接将患者送到导管室</t>
   </si>
   <si>
     <t>转送其他科室:</t>
@@ -889,6 +928,9 @@
     <t>死亡原因:</t>
   </si>
   <si>
+    <t>患者死亡的主要原因</t>
+  </si>
+  <si>
     <t>心源性</t>
   </si>
   <si>
@@ -896,6 +938,9 @@
   </si>
   <si>
     <t>描述</t>
+  </si>
+  <si>
+    <t>描述患者死亡的原因</t>
   </si>
   <si>
     <t>患者情况备注</t>
@@ -909,10 +954,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -941,8 +986,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -955,7 +1001,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -964,10 +1009,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -978,39 +1030,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1031,9 +1052,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1048,17 +1099,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1072,14 +1124,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1094,7 +1139,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,7 +1151,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,25 +1235,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,109 +1259,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,13 +1283,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,26 +1335,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1325,15 +1353,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1356,17 +1375,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1385,6 +1395,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1393,10 +1438,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1405,19 +1450,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1426,116 +1471,116 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1553,9 +1598,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
@@ -1913,8 +1955,8 @@
   <sheetPr/>
   <dimension ref="A1:C216"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C204" sqref="C204"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2749,197 +2791,287 @@
         <v>191</v>
       </c>
     </row>
-    <row r="118" ht="17" customHeight="1" spans="2:2">
+    <row r="118" ht="17" customHeight="1" spans="2:3">
       <c r="B118" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="119" ht="17" customHeight="1" spans="2:2">
+      <c r="C118" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="119" ht="17" customHeight="1" spans="2:3">
       <c r="B119" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="120" ht="17" customHeight="1" spans="2:2">
+        <v>194</v>
+      </c>
+      <c r="C119" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" ht="17" customHeight="1" spans="2:3">
       <c r="B120" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="121" ht="17" customHeight="1" spans="2:2">
+        <v>196</v>
+      </c>
+      <c r="C120" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="121" ht="17" customHeight="1" spans="2:3">
       <c r="B121" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="122" ht="17" customHeight="1" spans="2:2">
+        <v>198</v>
+      </c>
+      <c r="C121" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="122" ht="17" customHeight="1" spans="2:3">
       <c r="B122" t="s">
-        <v>196</v>
+        <v>200</v>
+      </c>
+      <c r="C122" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="123" ht="17" customHeight="1" spans="2:2">
       <c r="B123" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="124" ht="17" customHeight="1" spans="2:2">
       <c r="B124" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="125" ht="17" customHeight="1" spans="2:2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="125" ht="17" customHeight="1" spans="2:3">
       <c r="B125" t="s">
-        <v>199</v>
+        <v>204</v>
+      </c>
+      <c r="C125" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="126" ht="17" customHeight="1" spans="2:2">
       <c r="B126" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="127" ht="17" customHeight="1" spans="2:2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="127" ht="17" customHeight="1" spans="2:3">
       <c r="B127" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="128" ht="17" customHeight="1" spans="2:2">
+        <v>207</v>
+      </c>
+      <c r="C127" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="128" ht="17" customHeight="1" spans="2:3">
       <c r="B128" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="129" ht="17" customHeight="1" spans="2:2">
+        <v>209</v>
+      </c>
+      <c r="C128" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="129" ht="17" customHeight="1" spans="2:3">
       <c r="B129" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="130" ht="17" customHeight="1" spans="2:2">
+        <v>210</v>
+      </c>
+      <c r="C129" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="130" ht="17" customHeight="1" spans="2:3">
       <c r="B130" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="131" ht="17" customHeight="1" spans="2:2">
+        <v>211</v>
+      </c>
+      <c r="C130" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="131" ht="17" customHeight="1" spans="2:3">
       <c r="B131" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="132" ht="17" customHeight="1" spans="2:2">
+        <v>212</v>
+      </c>
+      <c r="C131" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="132" ht="17" customHeight="1" spans="2:3">
       <c r="B132" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="133" ht="17" customHeight="1" spans="2:2">
+        <v>213</v>
+      </c>
+      <c r="C132" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="133" ht="17" customHeight="1" spans="2:3">
       <c r="B133" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="134" ht="17" customHeight="1" spans="2:2">
+        <v>214</v>
+      </c>
+      <c r="C133" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="134" ht="17" customHeight="1" spans="2:3">
       <c r="B134" t="s">
+        <v>215</v>
+      </c>
+      <c r="C134" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="135" ht="17" customHeight="1" spans="2:2">
+    <row r="135" ht="17" customHeight="1" spans="2:3">
       <c r="B135" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="136" ht="17" customHeight="1" spans="2:2">
+        <v>216</v>
+      </c>
+      <c r="C135" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="136" ht="17" customHeight="1" spans="2:3">
       <c r="B136" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="137" ht="17" customHeight="1" spans="2:2">
+        <v>217</v>
+      </c>
+      <c r="C136" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="137" ht="17" customHeight="1" spans="2:3">
       <c r="B137" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="138" ht="17" customHeight="1" spans="2:2">
+        <v>218</v>
+      </c>
+      <c r="C137" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="138" ht="17" customHeight="1" spans="2:3">
       <c r="B138" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="139" ht="17" customHeight="1" spans="2:2">
+        <v>219</v>
+      </c>
+      <c r="C138" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="139" ht="17" customHeight="1" spans="2:3">
       <c r="B139" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="140" ht="17" customHeight="1" spans="2:2">
+        <v>220</v>
+      </c>
+      <c r="C139" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="140" ht="17" customHeight="1" spans="2:3">
       <c r="B140" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="141" ht="17" customHeight="1" spans="2:2">
+        <v>221</v>
+      </c>
+      <c r="C140" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="141" ht="17" customHeight="1" spans="2:3">
       <c r="B141" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="142" ht="17" customHeight="1" spans="2:2">
+        <v>222</v>
+      </c>
+      <c r="C141" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="142" ht="17" customHeight="1" spans="2:3">
       <c r="B142" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="143" ht="17" customHeight="1" spans="2:2">
+        <v>223</v>
+      </c>
+      <c r="C142" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="143" ht="17" customHeight="1" spans="2:3">
       <c r="B143" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="144" ht="17" customHeight="1" spans="2:2">
+        <v>224</v>
+      </c>
+      <c r="C143" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="144" ht="17" customHeight="1" spans="2:3">
       <c r="B144" t="s">
-        <v>218</v>
+        <v>225</v>
+      </c>
+      <c r="C144" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="145" ht="17" customHeight="1" spans="2:2">
       <c r="B145" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="146" ht="17" customHeight="1" spans="2:2">
       <c r="B146" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="147" ht="17" customHeight="1" spans="2:2">
       <c r="B147" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="148" ht="17" customHeight="1" spans="2:2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="148" ht="17" customHeight="1" spans="2:3">
       <c r="B148" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="149" ht="17" customHeight="1" spans="2:2">
+        <v>230</v>
+      </c>
+      <c r="C148" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="149" ht="17" customHeight="1" spans="2:3">
       <c r="B149" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="150" ht="17" customHeight="1" spans="2:2">
+        <v>232</v>
+      </c>
+      <c r="C149" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="150" ht="17" customHeight="1" spans="2:3">
       <c r="B150" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="151" ht="17" customHeight="1" spans="2:2">
+        <v>233</v>
+      </c>
+      <c r="C150" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="151" ht="17" customHeight="1" spans="2:3">
       <c r="B151" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="152" ht="17" customHeight="1" spans="2:2">
+        <v>234</v>
+      </c>
+      <c r="C151" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="152" ht="17" customHeight="1" spans="2:3">
       <c r="B152" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="153" ht="17" customHeight="1" spans="2:2">
+        <v>235</v>
+      </c>
+      <c r="C152" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="153" ht="17" customHeight="1" spans="2:3">
       <c r="B153" t="s">
-        <v>227</v>
+        <v>236</v>
+      </c>
+      <c r="C153" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="154" ht="37" customHeight="1" spans="2:3">
       <c r="B154" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="155" ht="17" customHeight="1" spans="1:1">
       <c r="A155" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
     </row>
     <row r="158" ht="15.6" spans="1:3">
@@ -2947,7 +3079,7 @@
         <v>134</v>
       </c>
       <c r="C158" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="159" spans="2:2">
@@ -2967,63 +3099,63 @@
     </row>
     <row r="162" spans="2:2">
       <c r="B162" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="164" spans="2:3">
       <c r="B164" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C164" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="165" spans="2:3">
       <c r="B165" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C165" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="173" ht="15.6" spans="1:1">
       <c r="A173" s="4" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="175" spans="2:2">
@@ -3038,135 +3170,135 @@
     </row>
     <row r="177" spans="2:2">
       <c r="B177" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="181" spans="2:3">
       <c r="B181" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C181" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="182" spans="2:3">
       <c r="B182" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C182" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="183" spans="2:3">
       <c r="B183" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C183" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="184" spans="2:3">
       <c r="B184" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C184" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="5" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B185" s="5"/>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="5"/>
       <c r="B186" s="5" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="5"/>
       <c r="B187" s="5" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C187" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="5"/>
       <c r="B188" s="5" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C188" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="5"/>
       <c r="B189" s="5" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C189" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="5"/>
       <c r="B190" s="5" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C190" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="191" ht="43.2" spans="1:3">
       <c r="A191" s="5"/>
       <c r="B191" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>260</v>
+        <v>268</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="5"/>
       <c r="B192" s="5" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C192" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="5"/>
       <c r="B193" s="5" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C193" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="5"/>
       <c r="B194" s="5" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C194" t="s">
         <v>143</v>
@@ -3175,7 +3307,7 @@
     <row r="195" spans="1:3">
       <c r="A195" s="5"/>
       <c r="B195" s="5" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C195" t="s">
         <v>143</v>
@@ -3184,7 +3316,7 @@
     <row r="196" spans="1:3">
       <c r="A196" s="5"/>
       <c r="B196" s="5" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C196" t="s">
         <v>143</v>
@@ -3193,25 +3325,28 @@
     <row r="197" spans="1:3">
       <c r="A197" s="5"/>
       <c r="B197" s="5" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C197" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:3">
       <c r="A198" s="5"/>
       <c r="B198" s="5" t="s">
-        <v>268</v>
+        <v>277</v>
+      </c>
+      <c r="C198" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="5"/>
       <c r="B199" t="s">
-        <v>269</v>
-      </c>
-      <c r="C199" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3219,117 +3354,135 @@
       <c r="B200" t="s">
         <v>69</v>
       </c>
-      <c r="C200" s="7"/>
+      <c r="C200" s="6" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="5"/>
       <c r="B201" t="s">
-        <v>271</v>
-      </c>
-      <c r="C201" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="5"/>
       <c r="B202" t="s">
-        <v>272</v>
-      </c>
-      <c r="C202" s="7"/>
+        <v>284</v>
+      </c>
+      <c r="C202" s="6"/>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="5"/>
       <c r="B203" t="s">
-        <v>273</v>
-      </c>
-      <c r="C203" s="7"/>
+        <v>285</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="5"/>
       <c r="B204" s="5" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="5"/>
       <c r="B205" s="5" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C205" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="5"/>
       <c r="B206" s="5" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C206" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="5"/>
       <c r="B207" s="5" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="C207" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="208" ht="57.6" spans="1:3">
       <c r="A208" s="5"/>
       <c r="B208" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>282</v>
+        <v>294</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="5"/>
       <c r="B209" s="5" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="C209" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" s="5"/>
       <c r="B210" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
+        <v>298</v>
+      </c>
+      <c r="C210" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" s="5"/>
-      <c r="B211" s="8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
+      <c r="B211" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C211" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" s="5"/>
       <c r="B212" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
+        <v>301</v>
+      </c>
+      <c r="C212" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" s="5"/>
       <c r="B213" s="5" t="s">
-        <v>288</v>
+        <v>302</v>
+      </c>
+      <c r="C213" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/字段整理/字段整理.xlsx
+++ b/字段整理/字段整理.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nlworkspace\CPC\字段整理\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9947"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9948"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="306">
   <si>
     <t>基本信息</t>
   </si>
@@ -493,9 +498,6 @@
     <t>剂量（含单位）</t>
   </si>
   <si>
-    <t>给的抗凝给药物量</t>
-  </si>
-  <si>
     <t>院前溶栓治疗：</t>
   </si>
   <si>
@@ -947,19 +949,17 @@
   </si>
   <si>
     <t>病历填写说明</t>
+  </si>
+  <si>
+    <t>给的抗凝给药物量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -977,7 +977,7 @@
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -986,345 +986,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1332,251 +1008,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1606,61 +1040,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1947,26 +1337,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C216"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="25.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="36.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="16.95" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1977,7 +1367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="2:3">
+    <row r="2" spans="1:3" ht="16.95" customHeight="1">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -1985,7 +1375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="2:3">
+    <row r="3" spans="1:3" ht="16.95" customHeight="1">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1993,7 +1383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="2:3">
+    <row r="4" spans="1:3" ht="16.95" customHeight="1">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -2001,7 +1391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="2:3">
+    <row r="5" spans="1:3" ht="16.95" customHeight="1">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -2009,7 +1399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="2:3">
+    <row r="6" spans="1:3" ht="16.95" customHeight="1">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -2017,7 +1407,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="2:3">
+    <row r="7" spans="1:3" ht="16.95" customHeight="1">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -2025,7 +1415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="2:3">
+    <row r="8" spans="1:3" ht="16.95" customHeight="1">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -2033,7 +1423,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="2:3">
+    <row r="9" spans="1:3" ht="16.95" customHeight="1">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -2041,7 +1431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="2:3">
+    <row r="10" spans="1:3" ht="16.95" customHeight="1">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -2049,7 +1439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="2:3">
+    <row r="11" spans="1:3" ht="16.95" customHeight="1">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -2057,12 +1447,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="2:2">
+    <row r="12" spans="1:3" ht="16.95" customHeight="1">
       <c r="B12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="57.6" spans="1:3">
+    <row r="13" spans="1:3" ht="57.6">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2073,22 +1463,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="2:2">
+    <row r="14" spans="1:3" ht="16.95" customHeight="1">
       <c r="B14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="2:2">
+    <row r="15" spans="1:3" ht="16.95" customHeight="1">
       <c r="B15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="2:2">
+    <row r="16" spans="1:3" ht="16.95" customHeight="1">
       <c r="B16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" ht="57.6" spans="2:3">
+    <row r="17" spans="1:3" ht="55.2">
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -2096,7 +1486,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" ht="72" spans="2:3">
+    <row r="18" spans="1:3" ht="69">
       <c r="B18" t="s">
         <v>32</v>
       </c>
@@ -2104,7 +1494,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" ht="72" spans="2:3">
+    <row r="19" spans="1:3" ht="69">
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -2112,7 +1502,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" ht="28.8" spans="2:3">
+    <row r="20" spans="1:3" ht="27.6">
       <c r="B20" t="s">
         <v>36</v>
       </c>
@@ -2120,17 +1510,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" ht="17" customHeight="1" spans="2:2">
+    <row r="21" spans="1:3" ht="16.95" customHeight="1">
       <c r="B21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" ht="17" customHeight="1" spans="2:2">
+    <row r="22" spans="1:3" ht="16.95" customHeight="1">
       <c r="B22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" ht="39" customHeight="1" spans="1:3">
+    <row r="23" spans="1:3" ht="39" customHeight="1">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -2138,12 +1528,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" ht="17" customHeight="1" spans="2:2">
+    <row r="24" spans="1:3" ht="16.95" customHeight="1">
       <c r="B24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" ht="17" customHeight="1" spans="2:3">
+    <row r="25" spans="1:3" ht="16.95" customHeight="1">
       <c r="B25" t="s">
         <v>43</v>
       </c>
@@ -2151,22 +1541,22 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" ht="17" customHeight="1" spans="2:2">
+    <row r="26" spans="1:3" ht="16.95" customHeight="1">
       <c r="B26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" ht="17" customHeight="1" spans="2:2">
+    <row r="27" spans="1:3" ht="16.95" customHeight="1">
       <c r="B27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" ht="17" customHeight="1" spans="2:2">
+    <row r="28" spans="1:3" ht="16.95" customHeight="1">
       <c r="B28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" ht="36" customHeight="1" spans="2:3">
+    <row r="29" spans="1:3" ht="36" customHeight="1">
       <c r="B29" t="s">
         <v>48</v>
       </c>
@@ -2174,7 +1564,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" ht="66" customHeight="1" spans="2:3">
+    <row r="30" spans="1:3" ht="66" customHeight="1">
       <c r="B30" t="s">
         <v>50</v>
       </c>
@@ -2182,7 +1572,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" ht="36" customHeight="1" spans="2:3">
+    <row r="31" spans="1:3" ht="36" customHeight="1">
       <c r="B31" t="s">
         <v>52</v>
       </c>
@@ -2190,7 +1580,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" ht="93" customHeight="1" spans="2:3">
+    <row r="32" spans="1:3" ht="93" customHeight="1">
       <c r="B32" t="s">
         <v>54</v>
       </c>
@@ -2198,32 +1588,32 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" ht="17" customHeight="1" spans="2:2">
+    <row r="33" spans="2:3" ht="16.95" customHeight="1">
       <c r="B33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" ht="17" customHeight="1" spans="2:2">
+    <row r="34" spans="2:3" ht="16.95" customHeight="1">
       <c r="B34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" ht="17" customHeight="1" spans="2:2">
+    <row r="35" spans="2:3" ht="16.95" customHeight="1">
       <c r="B35" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" ht="17" customHeight="1" spans="2:2">
+    <row r="36" spans="2:3" ht="16.95" customHeight="1">
       <c r="B36" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" ht="17" customHeight="1" spans="2:2">
+    <row r="37" spans="2:3" ht="16.95" customHeight="1">
       <c r="B37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" ht="50" customHeight="1" spans="2:3">
+    <row r="38" spans="2:3" ht="49.95" customHeight="1">
       <c r="B38" t="s">
         <v>61</v>
       </c>
@@ -2231,7 +1621,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" ht="70" customHeight="1" spans="2:3">
+    <row r="39" spans="2:3" ht="70.05" customHeight="1">
       <c r="B39" t="s">
         <v>63</v>
       </c>
@@ -2239,7 +1629,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" ht="17" customHeight="1" spans="2:3">
+    <row r="40" spans="2:3" ht="16.95" customHeight="1">
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -2247,7 +1637,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" ht="17" customHeight="1" spans="2:3">
+    <row r="41" spans="2:3" ht="16.95" customHeight="1">
       <c r="B41" t="s">
         <v>67</v>
       </c>
@@ -2255,7 +1645,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" ht="52" customHeight="1" spans="2:3">
+    <row r="42" spans="2:3" ht="52.05" customHeight="1">
       <c r="B42" t="s">
         <v>69</v>
       </c>
@@ -2263,12 +1653,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" ht="17" customHeight="1" spans="2:2">
+    <row r="43" spans="2:3" ht="16.95" customHeight="1">
       <c r="B43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" ht="17" customHeight="1" spans="2:3">
+    <row r="44" spans="2:3" ht="16.95" customHeight="1">
       <c r="B44" t="s">
         <v>72</v>
       </c>
@@ -2276,7 +1666,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" ht="17" customHeight="1" spans="2:3">
+    <row r="45" spans="2:3" ht="16.95" customHeight="1">
       <c r="B45" t="s">
         <v>74</v>
       </c>
@@ -2284,7 +1674,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" ht="17" customHeight="1" spans="2:3">
+    <row r="46" spans="2:3" ht="16.95" customHeight="1">
       <c r="B46" t="s">
         <v>76</v>
       </c>
@@ -2292,7 +1682,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" ht="17" customHeight="1" spans="2:3">
+    <row r="47" spans="2:3" ht="16.95" customHeight="1">
       <c r="B47" t="s">
         <v>78</v>
       </c>
@@ -2300,7 +1690,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" ht="29" customHeight="1" spans="2:3">
+    <row r="48" spans="2:3" ht="28.95" customHeight="1">
       <c r="B48" t="s">
         <v>80</v>
       </c>
@@ -2308,7 +1698,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" ht="36" customHeight="1" spans="2:3">
+    <row r="49" spans="1:3" ht="36" customHeight="1">
       <c r="B49" t="s">
         <v>82</v>
       </c>
@@ -2316,7 +1706,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" ht="17" customHeight="1" spans="2:3">
+    <row r="50" spans="1:3" ht="16.95" customHeight="1">
       <c r="B50" t="s">
         <v>84</v>
       </c>
@@ -2324,7 +1714,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" ht="31" customHeight="1" spans="2:3">
+    <row r="51" spans="1:3" ht="31.05" customHeight="1">
       <c r="B51" t="s">
         <v>86</v>
       </c>
@@ -2332,12 +1722,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" ht="17" customHeight="1" spans="2:2">
+    <row r="52" spans="1:3" ht="16.95" customHeight="1">
       <c r="B52" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="53" ht="48" customHeight="1" spans="1:3">
+    <row r="53" spans="1:3" ht="48" customHeight="1">
       <c r="A53" t="s">
         <v>89</v>
       </c>
@@ -2345,22 +1735,22 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" ht="17" customHeight="1" spans="2:2">
+    <row r="54" spans="1:3" ht="16.95" customHeight="1">
       <c r="B54" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="55" ht="17" customHeight="1" spans="2:2">
+    <row r="55" spans="1:3" ht="16.95" customHeight="1">
       <c r="B55" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" ht="17" customHeight="1" spans="2:2">
+    <row r="56" spans="1:3" ht="16.95" customHeight="1">
       <c r="B56" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="57" ht="55" customHeight="1" spans="2:3">
+    <row r="57" spans="1:3" ht="55.05" customHeight="1">
       <c r="B57" t="s">
         <v>94</v>
       </c>
@@ -2368,12 +1758,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" ht="17" customHeight="1" spans="2:2">
+    <row r="58" spans="1:3" ht="16.95" customHeight="1">
       <c r="B58" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="59" ht="37" customHeight="1" spans="2:3">
+    <row r="59" spans="1:3" ht="37.049999999999997" customHeight="1">
       <c r="B59" t="s">
         <v>97</v>
       </c>
@@ -2381,12 +1771,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" ht="17" customHeight="1" spans="2:2">
+    <row r="60" spans="1:3" ht="16.95" customHeight="1">
       <c r="B60" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="61" ht="47" customHeight="1" spans="2:3">
+    <row r="61" spans="1:3" ht="46.95" customHeight="1">
       <c r="B61" t="s">
         <v>100</v>
       </c>
@@ -2394,12 +1784,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" ht="17" customHeight="1" spans="2:2">
+    <row r="62" spans="1:3" ht="16.95" customHeight="1">
       <c r="B62" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="63" ht="17" customHeight="1" spans="2:3">
+    <row r="63" spans="1:3" ht="16.95" customHeight="1">
       <c r="B63" t="s">
         <v>103</v>
       </c>
@@ -2407,27 +1797,27 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" ht="17" customHeight="1" spans="2:2">
+    <row r="64" spans="1:3" ht="16.95" customHeight="1">
       <c r="B64" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="65" ht="17" customHeight="1" spans="2:2">
+    <row r="65" spans="1:3" ht="16.95" customHeight="1">
       <c r="B65" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="66" ht="17" customHeight="1" spans="2:2">
+    <row r="66" spans="1:3" ht="16.95" customHeight="1">
       <c r="B66" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="67" ht="17" customHeight="1" spans="2:2">
+    <row r="67" spans="1:3" ht="16.95" customHeight="1">
       <c r="B67" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="68" ht="40" customHeight="1" spans="1:3">
+    <row r="68" spans="1:3" ht="40.049999999999997" customHeight="1">
       <c r="A68" t="s">
         <v>109</v>
       </c>
@@ -2438,7 +1828,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="69" ht="17" customHeight="1" spans="2:3">
+    <row r="69" spans="1:3" ht="16.95" customHeight="1">
       <c r="B69" t="s">
         <v>112</v>
       </c>
@@ -2446,7 +1836,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="70" ht="17" customHeight="1" spans="2:3">
+    <row r="70" spans="1:3" ht="16.95" customHeight="1">
       <c r="B70" t="s">
         <v>114</v>
       </c>
@@ -2454,7 +1844,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" ht="17" customHeight="1" spans="2:3">
+    <row r="71" spans="1:3" ht="16.95" customHeight="1">
       <c r="B71" t="s">
         <v>116</v>
       </c>
@@ -2462,7 +1852,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" ht="17" customHeight="1" spans="2:3">
+    <row r="72" spans="1:3" ht="16.95" customHeight="1">
       <c r="B72" t="s">
         <v>118</v>
       </c>
@@ -2470,7 +1860,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" ht="17" customHeight="1" spans="2:3">
+    <row r="73" spans="1:3" ht="16.95" customHeight="1">
       <c r="B73" t="s">
         <v>120</v>
       </c>
@@ -2478,7 +1868,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74" ht="17" customHeight="1" spans="1:2">
+    <row r="74" spans="1:3" ht="16.95" customHeight="1">
       <c r="A74" t="s">
         <v>122</v>
       </c>
@@ -2486,7 +1876,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" ht="17" customHeight="1" spans="2:3">
+    <row r="75" spans="1:3" ht="16.95" customHeight="1">
       <c r="B75" t="s">
         <v>124</v>
       </c>
@@ -2494,7 +1884,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="76" ht="17" customHeight="1" spans="2:3">
+    <row r="76" spans="1:3" ht="16.95" customHeight="1">
       <c r="B76" t="s">
         <v>126</v>
       </c>
@@ -2502,7 +1892,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="77" ht="17" customHeight="1" spans="2:3">
+    <row r="77" spans="1:3" ht="16.95" customHeight="1">
       <c r="B77" t="s">
         <v>128</v>
       </c>
@@ -2510,17 +1900,17 @@
         <v>129</v>
       </c>
     </row>
-    <row r="78" ht="17" customHeight="1" spans="2:2">
+    <row r="78" spans="1:3" ht="16.95" customHeight="1">
       <c r="B78" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="79" ht="17" customHeight="1" spans="2:2">
+    <row r="79" spans="1:3" ht="16.95" customHeight="1">
       <c r="B79" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="80" ht="17" customHeight="1" spans="2:3">
+    <row r="80" spans="1:3" ht="16.95" customHeight="1">
       <c r="B80" t="s">
         <v>132</v>
       </c>
@@ -2528,12 +1918,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="81" ht="17" customHeight="1" spans="1:1">
+    <row r="81" spans="1:3" ht="16.95" customHeight="1">
       <c r="A81" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="82" ht="17" customHeight="1" spans="2:3">
+    <row r="82" spans="1:3" ht="16.95" customHeight="1">
       <c r="B82" t="s">
         <v>135</v>
       </c>
@@ -2541,12 +1931,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" ht="17" customHeight="1" spans="2:2">
+    <row r="83" spans="1:3" ht="16.95" customHeight="1">
       <c r="B83" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="84" ht="17" customHeight="1" spans="2:3">
+    <row r="84" spans="1:3" ht="16.95" customHeight="1">
       <c r="B84" t="s">
         <v>138</v>
       </c>
@@ -2554,7 +1944,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="85" ht="17" customHeight="1" spans="2:3">
+    <row r="85" spans="1:3" ht="16.95" customHeight="1">
       <c r="B85" t="s">
         <v>140</v>
       </c>
@@ -2562,7 +1952,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="86" ht="17" customHeight="1" spans="2:3">
+    <row r="86" spans="1:3" ht="16.95" customHeight="1">
       <c r="B86" t="s">
         <v>142</v>
       </c>
@@ -2570,7 +1960,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="87" ht="17" customHeight="1" spans="2:3">
+    <row r="87" spans="1:3" ht="16.95" customHeight="1">
       <c r="B87" t="s">
         <v>144</v>
       </c>
@@ -2578,7 +1968,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="88" ht="17" customHeight="1" spans="2:3">
+    <row r="88" spans="1:3" ht="16.95" customHeight="1">
       <c r="B88" t="s">
         <v>145</v>
       </c>
@@ -2586,7 +1976,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" ht="17" customHeight="1" spans="2:3">
+    <row r="89" spans="1:3" ht="16.95" customHeight="1">
       <c r="B89" t="s">
         <v>146</v>
       </c>
@@ -2594,7 +1984,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" ht="17" customHeight="1" spans="2:3">
+    <row r="90" spans="1:3" ht="16.95" customHeight="1">
       <c r="B90" t="s">
         <v>148</v>
       </c>
@@ -2602,7 +1992,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="91" ht="17" customHeight="1" spans="2:3">
+    <row r="91" spans="1:3" ht="16.95" customHeight="1">
       <c r="B91" t="s">
         <v>150</v>
       </c>
@@ -2610,7 +2000,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" ht="17" customHeight="1" spans="2:3">
+    <row r="92" spans="1:3" ht="16.95" customHeight="1">
       <c r="B92" t="s">
         <v>152</v>
       </c>
@@ -2618,687 +2008,687 @@
         <v>153</v>
       </c>
     </row>
-    <row r="93" ht="17" customHeight="1" spans="2:3">
+    <row r="93" spans="1:3" ht="16.95" customHeight="1">
       <c r="B93" t="s">
         <v>154</v>
       </c>
       <c r="C93" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="16.95" customHeight="1">
+      <c r="B94" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="94" ht="17" customHeight="1" spans="2:2">
-      <c r="B94" t="s">
+    <row r="95" spans="1:3" ht="16.95" customHeight="1">
+      <c r="B95" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="95" ht="17" customHeight="1" spans="2:3">
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>157</v>
       </c>
-      <c r="C95" t="s">
+    </row>
+    <row r="96" spans="1:3" ht="16.95" customHeight="1">
+      <c r="B96" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="96" ht="17" customHeight="1" spans="2:3">
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>159</v>
       </c>
-      <c r="C96" t="s">
+    </row>
+    <row r="97" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B97" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="97" ht="17" customHeight="1" spans="2:3">
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>161</v>
       </c>
-      <c r="C97" t="s">
+    </row>
+    <row r="98" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B98" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="98" ht="17" customHeight="1" spans="2:3">
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>163</v>
       </c>
-      <c r="C98" t="s">
+    </row>
+    <row r="99" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B99" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="99" ht="17" customHeight="1" spans="2:3">
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>165</v>
       </c>
-      <c r="C99" t="s">
+    </row>
+    <row r="100" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B100" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="100" ht="17" customHeight="1" spans="2:3">
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>167</v>
       </c>
-      <c r="C100" t="s">
+    </row>
+    <row r="101" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B101" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="101" ht="17" customHeight="1" spans="2:3">
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>169</v>
       </c>
-      <c r="C101" t="s">
+    </row>
+    <row r="102" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B102" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="102" ht="17" customHeight="1" spans="2:3">
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>171</v>
       </c>
-      <c r="C102" t="s">
+    </row>
+    <row r="103" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B103" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="103" ht="17" customHeight="1" spans="2:3">
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>173</v>
       </c>
-      <c r="C103" t="s">
+    </row>
+    <row r="104" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B104" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="104" ht="17" customHeight="1" spans="2:3">
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>175</v>
       </c>
-      <c r="C104" t="s">
+    </row>
+    <row r="105" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B105" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="105" ht="17" customHeight="1" spans="2:3">
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>177</v>
       </c>
-      <c r="C105" t="s">
+    </row>
+    <row r="106" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B106" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="106" ht="17" customHeight="1" spans="2:3">
-      <c r="B106" t="s">
+      <c r="C106" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B107" t="s">
         <v>179</v>
       </c>
-      <c r="C106" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="107" ht="17" customHeight="1" spans="2:3">
-      <c r="B107" t="s">
+      <c r="C107" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B108" t="s">
         <v>180</v>
       </c>
-      <c r="C107" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="108" ht="17" customHeight="1" spans="2:3">
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>181</v>
       </c>
-      <c r="C108" t="s">
+    </row>
+    <row r="109" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B109" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="109" ht="17" customHeight="1" spans="2:3">
-      <c r="B109" t="s">
+      <c r="C109" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B110" t="s">
         <v>183</v>
       </c>
-      <c r="C109" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="110" ht="17" customHeight="1" spans="2:2">
-      <c r="B110" t="s">
+    </row>
+    <row r="111" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B111" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="111" ht="17" customHeight="1" spans="2:2">
-      <c r="B111" t="s">
+    <row r="112" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B112" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="112" ht="17" customHeight="1" spans="2:2">
-      <c r="B112" t="s">
+    <row r="113" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B113" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="113" ht="17" customHeight="1" spans="2:2">
-      <c r="B113" t="s">
+    <row r="114" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B114" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="114" ht="17" customHeight="1" spans="2:2">
-      <c r="B114" t="s">
+    <row r="115" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B115" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="115" ht="17" customHeight="1" spans="2:2">
-      <c r="B115" t="s">
+    <row r="116" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B116" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="116" ht="17" customHeight="1" spans="2:2">
-      <c r="B116" t="s">
+    <row r="117" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B117" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="117" ht="17" customHeight="1" spans="2:2">
-      <c r="B117" t="s">
+    <row r="118" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B118" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="118" ht="17" customHeight="1" spans="2:3">
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>192</v>
       </c>
-      <c r="C118" t="s">
+    </row>
+    <row r="119" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B119" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="119" ht="17" customHeight="1" spans="2:3">
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>194</v>
       </c>
-      <c r="C119" t="s">
+    </row>
+    <row r="120" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B120" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="120" ht="17" customHeight="1" spans="2:3">
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>196</v>
       </c>
-      <c r="C120" t="s">
+    </row>
+    <row r="121" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B121" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="121" ht="17" customHeight="1" spans="2:3">
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>198</v>
       </c>
-      <c r="C121" t="s">
+    </row>
+    <row r="122" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B122" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="122" ht="17" customHeight="1" spans="2:3">
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>200</v>
       </c>
-      <c r="C122" t="s">
+    </row>
+    <row r="123" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B123" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="123" ht="17" customHeight="1" spans="2:2">
-      <c r="B123" t="s">
+    <row r="124" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B124" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="124" ht="17" customHeight="1" spans="2:2">
-      <c r="B124" t="s">
+    <row r="125" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B125" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="125" ht="17" customHeight="1" spans="2:3">
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>204</v>
       </c>
-      <c r="C125" t="s">
+    </row>
+    <row r="126" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B126" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="126" ht="17" customHeight="1" spans="2:2">
-      <c r="B126" t="s">
+    <row r="127" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B127" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="127" ht="17" customHeight="1" spans="2:3">
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>207</v>
       </c>
-      <c r="C127" t="s">
+    </row>
+    <row r="128" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B128" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="128" ht="17" customHeight="1" spans="2:3">
-      <c r="B128" t="s">
+      <c r="C128" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B129" t="s">
         <v>209</v>
       </c>
-      <c r="C128" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="129" ht="17" customHeight="1" spans="2:3">
-      <c r="B129" t="s">
+      <c r="C129" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B130" t="s">
         <v>210</v>
       </c>
-      <c r="C129" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="130" ht="17" customHeight="1" spans="2:3">
-      <c r="B130" t="s">
+      <c r="C130" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B131" t="s">
         <v>211</v>
       </c>
-      <c r="C130" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="131" ht="17" customHeight="1" spans="2:3">
-      <c r="B131" t="s">
+      <c r="C131" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B132" t="s">
         <v>212</v>
       </c>
-      <c r="C131" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="132" ht="17" customHeight="1" spans="2:3">
-      <c r="B132" t="s">
+      <c r="C132" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B133" t="s">
         <v>213</v>
       </c>
-      <c r="C132" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="133" ht="17" customHeight="1" spans="2:3">
-      <c r="B133" t="s">
+      <c r="C133" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B134" t="s">
         <v>214</v>
       </c>
-      <c r="C133" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="134" ht="17" customHeight="1" spans="2:3">
-      <c r="B134" t="s">
+      <c r="C134" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B135" t="s">
         <v>215</v>
       </c>
-      <c r="C134" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="135" ht="17" customHeight="1" spans="2:3">
-      <c r="B135" t="s">
+      <c r="C135" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B136" t="s">
         <v>216</v>
       </c>
-      <c r="C135" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="136" ht="17" customHeight="1" spans="2:3">
-      <c r="B136" t="s">
+      <c r="C136" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B137" t="s">
         <v>217</v>
       </c>
-      <c r="C136" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="137" ht="17" customHeight="1" spans="2:3">
-      <c r="B137" t="s">
+      <c r="C137" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B138" t="s">
         <v>218</v>
       </c>
-      <c r="C137" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="138" ht="17" customHeight="1" spans="2:3">
-      <c r="B138" t="s">
+      <c r="C138" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B139" t="s">
         <v>219</v>
       </c>
-      <c r="C138" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="139" ht="17" customHeight="1" spans="2:3">
-      <c r="B139" t="s">
+      <c r="C139" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B140" t="s">
         <v>220</v>
       </c>
-      <c r="C139" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="140" ht="17" customHeight="1" spans="2:3">
-      <c r="B140" t="s">
+      <c r="C140" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B141" t="s">
         <v>221</v>
       </c>
-      <c r="C140" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="141" ht="17" customHeight="1" spans="2:3">
-      <c r="B141" t="s">
+      <c r="C141" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B142" t="s">
         <v>222</v>
       </c>
-      <c r="C141" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="142" ht="17" customHeight="1" spans="2:3">
-      <c r="B142" t="s">
+      <c r="C142" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B143" t="s">
         <v>223</v>
       </c>
-      <c r="C142" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="143" ht="17" customHeight="1" spans="2:3">
-      <c r="B143" t="s">
+      <c r="C143" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" ht="16.95" customHeight="1">
+      <c r="B144" t="s">
         <v>224</v>
       </c>
-      <c r="C143" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="144" ht="17" customHeight="1" spans="2:3">
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>225</v>
       </c>
-      <c r="C144" t="s">
+    </row>
+    <row r="145" spans="1:3" ht="16.95" customHeight="1">
+      <c r="B145" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="145" ht="17" customHeight="1" spans="2:2">
-      <c r="B145" t="s">
+    <row r="146" spans="1:3" ht="16.95" customHeight="1">
+      <c r="B146" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="146" ht="17" customHeight="1" spans="2:2">
-      <c r="B146" t="s">
+    <row r="147" spans="1:3" ht="16.95" customHeight="1">
+      <c r="B147" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="147" ht="17" customHeight="1" spans="2:2">
-      <c r="B147" t="s">
+    <row r="148" spans="1:3" ht="16.95" customHeight="1">
+      <c r="B148" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="148" ht="17" customHeight="1" spans="2:3">
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>230</v>
       </c>
-      <c r="C148" t="s">
+    </row>
+    <row r="149" spans="1:3" ht="16.95" customHeight="1">
+      <c r="B149" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="149" ht="17" customHeight="1" spans="2:3">
-      <c r="B149" t="s">
+      <c r="C149" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="16.95" customHeight="1">
+      <c r="B150" t="s">
         <v>232</v>
       </c>
-      <c r="C149" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="150" ht="17" customHeight="1" spans="2:3">
-      <c r="B150" t="s">
+      <c r="C150" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="16.95" customHeight="1">
+      <c r="B151" t="s">
         <v>233</v>
       </c>
-      <c r="C150" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="151" ht="17" customHeight="1" spans="2:3">
-      <c r="B151" t="s">
+      <c r="C151" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="16.95" customHeight="1">
+      <c r="B152" t="s">
         <v>234</v>
       </c>
-      <c r="C151" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="152" ht="17" customHeight="1" spans="2:3">
-      <c r="B152" t="s">
+      <c r="C152" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="16.95" customHeight="1">
+      <c r="B153" t="s">
         <v>235</v>
       </c>
-      <c r="C152" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="153" ht="17" customHeight="1" spans="2:3">
-      <c r="B153" t="s">
+      <c r="C153" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="37.049999999999997" customHeight="1">
+      <c r="B154" t="s">
         <v>236</v>
       </c>
-      <c r="C153" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="154" ht="37" customHeight="1" spans="2:3">
-      <c r="B154" t="s">
+      <c r="C154" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C154" s="3" t="s">
+    </row>
+    <row r="155" spans="1:3" ht="16.95" customHeight="1">
+      <c r="A155" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="155" ht="17" customHeight="1" spans="1:1">
-      <c r="A155" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="158" ht="15.6" spans="1:3">
+    <row r="158" spans="1:3" ht="15.6">
       <c r="A158" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C158" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="B159" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="160" spans="2:2">
+    <row r="160" spans="1:3">
       <c r="B160" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="B161" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="161" spans="2:2">
-      <c r="B161" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2">
+    <row r="162" spans="1:3">
       <c r="B162" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="B163" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="163" spans="2:2">
-      <c r="B163" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3">
+    <row r="164" spans="1:3">
       <c r="B164" t="s">
+        <v>240</v>
+      </c>
+      <c r="C164" t="s">
         <v>241</v>
       </c>
-      <c r="C164" t="s">
+    </row>
+    <row r="165" spans="1:3">
+      <c r="B165" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="165" spans="2:3">
-      <c r="B165" t="s">
+      <c r="C165" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="B166" t="s">
         <v>243</v>
       </c>
-      <c r="C165" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2">
-      <c r="B166" t="s">
+    </row>
+    <row r="167" spans="1:3">
+      <c r="B167" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="167" spans="2:2">
-      <c r="B167" t="s">
+    <row r="168" spans="1:3">
+      <c r="B168" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="168" spans="2:2">
-      <c r="B168" t="s">
+    <row r="169" spans="1:3">
+      <c r="B169" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="169" spans="2:2">
-      <c r="B169" t="s">
+    <row r="170" spans="1:3">
+      <c r="B170" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15.6">
+      <c r="A173" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="170" spans="2:2">
-      <c r="B170" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="173" ht="15.6" spans="1:1">
-      <c r="A173" s="4" t="s">
+    <row r="174" spans="1:3">
+      <c r="B174" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="174" spans="2:2">
-      <c r="B174" t="s">
+    <row r="175" spans="1:3">
+      <c r="B175" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="B176" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="B177" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="B178" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="B179" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="B180" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="175" spans="2:2">
-      <c r="B175" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2">
-      <c r="B176" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2">
-      <c r="B177" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="178" spans="2:2">
-      <c r="B178" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2">
-      <c r="B179" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="180" spans="2:2">
-      <c r="B180" t="s">
+    <row r="181" spans="1:3">
+      <c r="B181" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="181" spans="2:3">
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>251</v>
       </c>
-      <c r="C181" t="s">
+    </row>
+    <row r="182" spans="1:3">
+      <c r="B182" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="182" spans="2:3">
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>253</v>
       </c>
-      <c r="C182" t="s">
+    </row>
+    <row r="183" spans="1:3">
+      <c r="B183" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="183" spans="2:3">
-      <c r="B183" t="s">
+      <c r="C183" t="s">
         <v>255</v>
       </c>
-      <c r="C183" t="s">
+    </row>
+    <row r="184" spans="1:3">
+      <c r="B184" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="184" spans="2:3">
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>257</v>
       </c>
-      <c r="C184" t="s">
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="5" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="5" t="s">
-        <v>259</v>
-      </c>
       <c r="B185" s="5"/>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:3">
       <c r="A186" s="5"/>
       <c r="B186" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="5"/>
       <c r="B187" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C187" t="s">
         <v>261</v>
-      </c>
-      <c r="C187" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="5"/>
       <c r="B188" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C188" t="s">
         <v>263</v>
-      </c>
-      <c r="C188" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="5"/>
       <c r="B189" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C189" t="s">
         <v>265</v>
-      </c>
-      <c r="C189" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="5"/>
       <c r="B190" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C190" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="191" ht="43.2" spans="1:3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="43.2">
       <c r="A191" s="5"/>
       <c r="B191" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C191" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="5"/>
       <c r="B192" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C192" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="5"/>
       <c r="B193" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C193" t="s">
         <v>271</v>
-      </c>
-      <c r="C193" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="5"/>
       <c r="B194" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C194" t="s">
         <v>143</v>
@@ -3307,7 +2697,7 @@
     <row r="195" spans="1:3">
       <c r="A195" s="5"/>
       <c r="B195" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C195" t="s">
         <v>143</v>
@@ -3316,7 +2706,7 @@
     <row r="196" spans="1:3">
       <c r="A196" s="5"/>
       <c r="B196" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C196" t="s">
         <v>143</v>
@@ -3325,7 +2715,7 @@
     <row r="197" spans="1:3">
       <c r="A197" s="5"/>
       <c r="B197" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C197" t="s">
         <v>143</v>
@@ -3334,19 +2724,19 @@
     <row r="198" spans="1:3">
       <c r="A198" s="5"/>
       <c r="B198" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C198" t="s">
         <v>277</v>
-      </c>
-      <c r="C198" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="5"/>
       <c r="B199" t="s">
+        <v>278</v>
+      </c>
+      <c r="C199" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3355,176 +2745,170 @@
         <v>69</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="5"/>
       <c r="B201" t="s">
+        <v>281</v>
+      </c>
+      <c r="C201" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="5"/>
       <c r="B202" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C202" s="6"/>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="5"/>
       <c r="B203" t="s">
+        <v>284</v>
+      </c>
+      <c r="C203" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C203" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" s="5"/>
       <c r="B204" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="5"/>
       <c r="B205" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C205" t="s">
         <v>288</v>
-      </c>
-      <c r="C205" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="5"/>
       <c r="B206" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C206" t="s">
         <v>290</v>
-      </c>
-      <c r="C206" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="5"/>
       <c r="B207" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C207" t="s">
         <v>292</v>
       </c>
-      <c r="C207" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="208" ht="57.6" spans="1:3">
+    </row>
+    <row r="208" spans="1:3" ht="57.6">
       <c r="A208" s="5"/>
       <c r="B208" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="5"/>
       <c r="B209" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C209" t="s">
         <v>296</v>
-      </c>
-      <c r="C209" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="5"/>
       <c r="B210" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C210" t="s">
         <v>298</v>
-      </c>
-      <c r="C210" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="5"/>
       <c r="B211" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C211" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="5"/>
       <c r="B212" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C212" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="5"/>
       <c r="B213" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C213" t="s">
         <v>302</v>
       </c>
-      <c r="C213" t="s">
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C17" r:id="rId1" display="患者主观上感觉空气不足，呼吸费力，客观上患者有力呼吸，呼吸肌和辅助呼吸肌均参与呼吸运动，通气增加，呼吸频率、深度与节律都发生改变" tooltip="https://baike.baidu.com/item/%E9%A2%91%E7%8E%87"/>
+    <hyperlink ref="C17" r:id="rId1" tooltip="https://baike.baidu.com/item/%E9%A2%91%E7%8E%87"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>